--- a/OutputFiles/OCTUBRE 01 AL 15.xlsx
+++ b/OutputFiles/OCTUBRE 01 AL 15.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTC-USER\OneDrive - jtc.com.co\Escritorio\Alan\Python Projects\OutputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jtccomco-my.sharepoint.com/personal/alan_bohorquez_jtc_com_co/Documents/Escritorio/Alan/Python Projects/OutputFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B54B6-E555-4B72-82F3-1042C05A703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{656B54B6-E555-4B72-82F3-1042C05A703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892D3BB5-1AFB-4FA6-B13D-796843F9A91E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$L$372</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1201,10 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1289,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1321,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1351,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3620,7 +3621,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>42</v>
       </c>
@@ -3650,7 +3651,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>42</v>
       </c>
@@ -3680,7 +3681,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>42</v>
       </c>
@@ -3710,7 +3711,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>42</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>42</v>
       </c>
@@ -3770,7 +3771,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>42</v>
       </c>
@@ -3800,7 +3801,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>42</v>
       </c>
@@ -3830,7 +3831,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>42</v>
       </c>
@@ -3860,7 +3861,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>42</v>
       </c>
@@ -3890,7 +3891,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>42</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>42</v>
       </c>
@@ -3950,7 +3951,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>42</v>
       </c>
@@ -3980,7 +3981,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>42</v>
       </c>
@@ -4010,7 +4011,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>42</v>
       </c>
@@ -4040,7 +4041,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>42</v>
       </c>
@@ -4070,7 +4071,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>42</v>
       </c>
@@ -4100,7 +4101,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>42</v>
       </c>
@@ -4130,7 +4131,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>42</v>
       </c>
@@ -4160,7 +4161,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>42</v>
       </c>
@@ -4190,7 +4191,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +4221,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>42</v>
       </c>
@@ -4250,7 +4251,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>42</v>
       </c>
@@ -4280,7 +4281,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -4310,7 +4311,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
@@ -4340,7 +4341,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>42</v>
       </c>
@@ -4370,7 +4371,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
@@ -4400,7 +4401,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>42</v>
       </c>
@@ -4430,7 +4431,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>42</v>
       </c>
@@ -4460,7 +4461,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>42</v>
       </c>
@@ -4490,7 +4491,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>42</v>
       </c>
@@ -4520,7 +4521,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
@@ -4550,7 +4551,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>42</v>
       </c>
@@ -4580,7 +4581,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>42</v>
       </c>
@@ -4610,7 +4611,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>42</v>
       </c>
@@ -4640,7 +4641,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>42</v>
       </c>
@@ -4670,7 +4671,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -4700,7 +4701,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>42</v>
       </c>
@@ -4730,7 +4731,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>42</v>
       </c>
@@ -4760,7 +4761,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>42</v>
       </c>
@@ -4790,7 +4791,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>42</v>
       </c>
@@ -4820,7 +4821,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>42</v>
       </c>
@@ -4850,7 +4851,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>42</v>
       </c>
@@ -4880,7 +4881,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>42</v>
       </c>
@@ -4910,7 +4911,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>42</v>
       </c>
@@ -4942,7 +4943,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>42</v>
       </c>
@@ -4974,7 +4975,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>42</v>
       </c>
@@ -5004,7 +5005,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>42</v>
       </c>
@@ -5034,7 +5035,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>42</v>
       </c>
@@ -5064,7 +5065,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>42</v>
       </c>
@@ -5094,7 +5095,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>42</v>
       </c>
@@ -5124,7 +5125,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>42</v>
       </c>
@@ -5154,7 +5155,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>42</v>
       </c>
@@ -5184,7 +5185,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>42</v>
       </c>
@@ -5214,7 +5215,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>42</v>
       </c>
@@ -5244,7 +5245,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>42</v>
       </c>
@@ -5274,7 +5275,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>42</v>
       </c>
@@ -5304,7 +5305,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>42</v>
       </c>
@@ -5334,7 +5335,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>42</v>
       </c>
@@ -5364,7 +5365,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>42</v>
       </c>
@@ -5394,7 +5395,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>42</v>
       </c>
@@ -5424,7 +5425,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5455,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>42</v>
       </c>
@@ -5484,7 +5485,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>42</v>
       </c>
@@ -5514,7 +5515,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>42</v>
       </c>
@@ -5544,7 +5545,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>42</v>
       </c>
@@ -5574,7 +5575,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>42</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>79</v>
       </c>
@@ -5634,7 +5635,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>79</v>
       </c>
@@ -5662,7 +5663,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>79</v>
       </c>
@@ -5692,7 +5693,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>79</v>
       </c>
@@ -5722,7 +5723,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>79</v>
       </c>
@@ -5752,7 +5753,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>79</v>
       </c>
@@ -5782,7 +5783,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>100</v>
       </c>
@@ -5814,7 +5815,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>100</v>
       </c>
@@ -5846,7 +5847,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>100</v>
       </c>
@@ -5878,7 +5879,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>100</v>
       </c>
@@ -5910,7 +5911,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>100</v>
       </c>
@@ -5942,7 +5943,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>100</v>
       </c>
@@ -5974,7 +5975,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>100</v>
       </c>
@@ -6006,7 +6007,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>100</v>
       </c>
@@ -6038,7 +6039,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>100</v>
       </c>
@@ -6070,7 +6071,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>100</v>
       </c>
@@ -6102,7 +6103,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>100</v>
       </c>
@@ -6134,7 +6135,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>100</v>
       </c>
@@ -6166,7 +6167,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>100</v>
       </c>
@@ -6198,7 +6199,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>100</v>
       </c>
@@ -6230,7 +6231,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>100</v>
       </c>
@@ -6262,7 +6263,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>100</v>
       </c>
@@ -6294,7 +6295,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>100</v>
       </c>
@@ -6326,7 +6327,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>100</v>
       </c>
@@ -6358,7 +6359,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>100</v>
       </c>
@@ -6390,7 +6391,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>100</v>
       </c>
@@ -6422,7 +6423,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>100</v>
       </c>
@@ -6454,7 +6455,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>100</v>
       </c>
@@ -6486,7 +6487,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>100</v>
       </c>
@@ -6518,7 +6519,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>100</v>
       </c>
@@ -6550,7 +6551,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>100</v>
       </c>
@@ -6582,7 +6583,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>100</v>
       </c>
@@ -6614,7 +6615,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>100</v>
       </c>
@@ -6644,7 +6645,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>112</v>
       </c>
@@ -6676,7 +6677,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>112</v>
       </c>
@@ -6708,7 +6709,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>118</v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>118</v>
       </c>
@@ -6772,7 +6773,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>118</v>
       </c>
@@ -6804,7 +6805,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>118</v>
       </c>
@@ -6832,7 +6833,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>126</v>
       </c>
@@ -6864,7 +6865,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>126</v>
       </c>
@@ -6896,7 +6897,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>126</v>
       </c>
@@ -6926,7 +6927,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>126</v>
       </c>
@@ -6956,7 +6957,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>126</v>
       </c>
@@ -6986,7 +6987,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>126</v>
       </c>
@@ -7016,7 +7017,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>126</v>
       </c>
@@ -7046,7 +7047,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>126</v>
       </c>
@@ -7074,7 +7075,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>53</v>
       </c>
@@ -7104,7 +7105,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>53</v>
       </c>
@@ -7134,7 +7135,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>53</v>
       </c>
@@ -7164,7 +7165,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>53</v>
       </c>
@@ -7194,7 +7195,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>53</v>
       </c>
@@ -7224,7 +7225,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>53</v>
       </c>
@@ -7254,7 +7255,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>53</v>
       </c>
@@ -7286,7 +7287,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>53</v>
       </c>
@@ -7318,7 +7319,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>53</v>
       </c>
@@ -7350,7 +7351,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>53</v>
       </c>
@@ -7382,7 +7383,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>53</v>
       </c>
@@ -7414,7 +7415,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>53</v>
       </c>
@@ -7446,7 +7447,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>53</v>
       </c>
@@ -7478,7 +7479,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>53</v>
       </c>
@@ -7510,7 +7511,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>53</v>
       </c>
@@ -7542,7 +7543,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>53</v>
       </c>
@@ -7574,7 +7575,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>53</v>
       </c>
@@ -7606,7 +7607,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>53</v>
       </c>
@@ -7638,7 +7639,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>53</v>
       </c>
@@ -7670,7 +7671,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>53</v>
       </c>
@@ -7702,7 +7703,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>53</v>
       </c>
@@ -7734,7 +7735,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>53</v>
       </c>
@@ -7766,7 +7767,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>53</v>
       </c>
@@ -7798,7 +7799,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>53</v>
       </c>
@@ -7830,7 +7831,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>53</v>
       </c>
@@ -7862,7 +7863,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>53</v>
       </c>
@@ -7894,7 +7895,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>53</v>
       </c>
@@ -7924,7 +7925,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>53</v>
       </c>
@@ -7954,7 +7955,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>53</v>
       </c>
@@ -7984,7 +7985,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>53</v>
       </c>
@@ -8014,7 +8015,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>53</v>
       </c>
@@ -8044,7 +8045,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>53</v>
       </c>
@@ -8076,7 +8077,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>53</v>
       </c>
@@ -8108,7 +8109,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>53</v>
       </c>
@@ -8140,7 +8141,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>53</v>
       </c>
@@ -8172,7 +8173,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>106</v>
       </c>
@@ -8204,7 +8205,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>106</v>
       </c>
@@ -8236,7 +8237,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>106</v>
       </c>
@@ -8266,7 +8267,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>106</v>
       </c>
@@ -8296,7 +8297,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>106</v>
       </c>
@@ -8326,7 +8327,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>106</v>
       </c>
@@ -8356,7 +8357,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>106</v>
       </c>
@@ -8386,7 +8387,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>106</v>
       </c>
@@ -8416,7 +8417,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>106</v>
       </c>
@@ -8446,7 +8447,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>106</v>
       </c>
@@ -8476,7 +8477,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>106</v>
       </c>
@@ -8506,7 +8507,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>106</v>
       </c>
@@ -8536,7 +8537,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>106</v>
       </c>
@@ -8566,7 +8567,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>106</v>
       </c>
@@ -8596,7 +8597,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>106</v>
       </c>
@@ -8626,7 +8627,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>106</v>
       </c>
@@ -8656,7 +8657,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>106</v>
       </c>
@@ -8686,7 +8687,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>106</v>
       </c>
@@ -8716,7 +8717,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>106</v>
       </c>
@@ -8746,7 +8747,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>106</v>
       </c>
@@ -8776,7 +8777,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>106</v>
       </c>
@@ -8806,7 +8807,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>106</v>
       </c>
@@ -8838,7 +8839,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>106</v>
       </c>
@@ -8870,7 +8871,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>106</v>
       </c>
@@ -8900,7 +8901,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>106</v>
       </c>
@@ -8930,7 +8931,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>106</v>
       </c>
@@ -8960,7 +8961,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>106</v>
       </c>
@@ -8992,7 +8993,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>106</v>
       </c>
@@ -9024,7 +9025,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>106</v>
       </c>
@@ -9054,7 +9055,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>106</v>
       </c>
@@ -9084,7 +9085,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>106</v>
       </c>
@@ -9114,7 +9115,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>106</v>
       </c>
@@ -9144,7 +9145,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>106</v>
       </c>
@@ -9174,7 +9175,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>106</v>
       </c>
@@ -9204,7 +9205,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>106</v>
       </c>
@@ -9234,7 +9235,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>106</v>
       </c>
@@ -9264,7 +9265,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>106</v>
       </c>
@@ -9294,7 +9295,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>106</v>
       </c>
@@ -9324,7 +9325,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>106</v>
       </c>
@@ -9354,7 +9355,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>106</v>
       </c>
@@ -9384,7 +9385,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>106</v>
       </c>
@@ -9414,7 +9415,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>106</v>
       </c>
@@ -9444,7 +9445,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>106</v>
       </c>
@@ -9474,7 +9475,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>106</v>
       </c>
@@ -9504,7 +9505,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>106</v>
       </c>
@@ -9534,7 +9535,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>106</v>
       </c>
@@ -9564,7 +9565,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>214</v>
       </c>
@@ -9594,7 +9595,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>214</v>
       </c>
@@ -9624,7 +9625,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>214</v>
       </c>
@@ -9654,7 +9655,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>214</v>
       </c>
@@ -9684,7 +9685,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>214</v>
       </c>
@@ -9714,7 +9715,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>214</v>
       </c>
@@ -9744,7 +9745,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>214</v>
       </c>
@@ -9774,7 +9775,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>214</v>
       </c>
@@ -9804,7 +9805,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>214</v>
       </c>
@@ -9834,7 +9835,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>214</v>
       </c>
@@ -9864,7 +9865,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>214</v>
       </c>
@@ -9894,7 +9895,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>179</v>
       </c>
@@ -9924,7 +9925,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>179</v>
       </c>
@@ -9954,7 +9955,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>179</v>
       </c>
@@ -9984,7 +9985,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>179</v>
       </c>
@@ -10014,7 +10015,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>55</v>
       </c>
@@ -10044,7 +10045,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>55</v>
       </c>
@@ -10074,7 +10075,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>55</v>
       </c>
@@ -10104,7 +10105,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>55</v>
       </c>
@@ -10134,7 +10135,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>55</v>
       </c>
@@ -10164,7 +10165,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>55</v>
       </c>
@@ -10194,7 +10195,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>55</v>
       </c>
@@ -10224,7 +10225,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>55</v>
       </c>
@@ -10254,7 +10255,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>55</v>
       </c>
@@ -10284,7 +10285,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>55</v>
       </c>
@@ -10314,7 +10315,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>55</v>
       </c>
@@ -10344,7 +10345,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>55</v>
       </c>
@@ -10374,7 +10375,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>55</v>
       </c>
@@ -10404,7 +10405,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>55</v>
       </c>
@@ -10434,7 +10435,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>55</v>
       </c>
@@ -10464,7 +10465,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>55</v>
       </c>
@@ -10494,7 +10495,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>55</v>
       </c>
@@ -10524,7 +10525,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>55</v>
       </c>
@@ -10554,7 +10555,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>55</v>
       </c>
@@ -10584,7 +10585,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>55</v>
       </c>
@@ -10614,7 +10615,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>55</v>
       </c>
@@ -10644,7 +10645,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>55</v>
       </c>
@@ -10674,7 +10675,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>55</v>
       </c>
@@ -10704,7 +10705,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>55</v>
       </c>
@@ -10734,7 +10735,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>55</v>
       </c>
@@ -10764,7 +10765,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>55</v>
       </c>
@@ -10794,7 +10795,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>55</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>55</v>
       </c>
@@ -10854,7 +10855,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>55</v>
       </c>
@@ -10884,7 +10885,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>55</v>
       </c>
@@ -10914,7 +10915,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>55</v>
       </c>
@@ -10944,7 +10945,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>55</v>
       </c>
@@ -10974,7 +10975,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>55</v>
       </c>
@@ -11004,7 +11005,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>55</v>
       </c>
@@ -11034,7 +11035,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>55</v>
       </c>
@@ -11064,7 +11065,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>55</v>
       </c>
@@ -11094,7 +11095,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>55</v>
       </c>
@@ -11126,7 +11127,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>55</v>
       </c>
@@ -11158,7 +11159,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>55</v>
       </c>
@@ -11188,7 +11189,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>55</v>
       </c>
@@ -11220,7 +11221,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>55</v>
       </c>
@@ -11252,7 +11253,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>55</v>
       </c>
@@ -11282,7 +11283,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>55</v>
       </c>
@@ -11312,7 +11313,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>55</v>
       </c>
@@ -11340,7 +11341,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>55</v>
       </c>
@@ -11370,7 +11371,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>55</v>
       </c>
@@ -11400,7 +11401,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>55</v>
       </c>
@@ -11430,7 +11431,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>55</v>
       </c>
@@ -11460,7 +11461,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>55</v>
       </c>
@@ -11492,7 +11493,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>55</v>
       </c>
@@ -11524,7 +11525,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>55</v>
       </c>
@@ -11556,7 +11557,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>55</v>
       </c>
@@ -11588,7 +11589,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>55</v>
       </c>
@@ -11620,7 +11621,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>55</v>
       </c>
@@ -11652,7 +11653,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>55</v>
       </c>
@@ -11684,7 +11685,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>55</v>
       </c>
@@ -11716,7 +11717,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>55</v>
       </c>
@@ -11748,7 +11749,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>55</v>
       </c>
@@ -12228,7 +12229,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>44</v>
       </c>
@@ -12260,7 +12261,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>44</v>
       </c>
@@ -12292,7 +12293,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>44</v>
       </c>
@@ -12322,7 +12323,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>44</v>
       </c>
@@ -12352,7 +12353,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>44</v>
       </c>
@@ -12384,7 +12385,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>44</v>
       </c>
@@ -12416,7 +12417,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>44</v>
       </c>
@@ -12448,7 +12449,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>44</v>
       </c>
@@ -12480,7 +12481,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>44</v>
       </c>
@@ -12510,7 +12511,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>44</v>
       </c>
@@ -12540,7 +12541,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>44</v>
       </c>
@@ -12570,7 +12571,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>44</v>
       </c>
@@ -12600,7 +12601,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>44</v>
       </c>
@@ -12630,7 +12631,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>44</v>
       </c>
@@ -12660,7 +12661,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>44</v>
       </c>
@@ -12690,7 +12691,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>44</v>
       </c>
@@ -12719,9 +12720,14 @@
       <c r="L372" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L372">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:L372" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="P6VKMFMHLTUUP7TNR4JC"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L356">
+      <sortCondition ref="A1:A372"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
